--- a/data/trans_camb/P18_6_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P18_6_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>83,58</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-7,38</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>-7,26</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>70,11</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-5,19</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-3,11</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>76,63</t>
+          <t>-0,99</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-4,88</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-2,04</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-2,95</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>-1,42</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 2,17</t>
+          <t>-6,06; 2,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 2,59</t>
+          <t>-5,97; 2,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 0,36</t>
+          <t>-6,82; 0,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>79,76; 86,69</t>
+          <t>-3,93; 4,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,87; -4,21</t>
+          <t>-4,02; 2,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 0,63</t>
+          <t>-1,14; 4,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 0,03</t>
+          <t>-10,75; -3,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>66,59; 73,38</t>
+          <t>-6,04; 1,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,71; -2,36</t>
+          <t>-6,55; 0,53</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 0,65</t>
+          <t>-4,2; 3,68</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-5,6; -0,64</t>
+          <t>-5,86; 1,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>74,01; 79,13</t>
+          <t>-4,07; 2,31</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-7,39; -1,67</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-4,88; 0,85</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-5,64; -0,51</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-2,48; 3,25</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-4,08; 1,16</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-1,98; 2,47</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-31,55%</t>
+          <t>-25,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-19,57%</t>
+          <t>-17,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-31,66%</t>
+          <t>-30,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>945,92%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-47,34%</t>
+          <t>-5,66%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-16,2%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-21,9%</t>
+          <t>-46,6%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>449,86%</t>
+          <t>-16,09%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-42,0%</t>
+          <t>-20,41%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-17,26%</t>
+          <t>-1,28%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-25,11%</t>
+          <t>-13,46%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>619,61%</t>
+          <t>-6,94%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-39,42%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-16,53%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-23,85%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>1,87%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>-11,29%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>1,65%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-59,97; 33,81</t>
+          <t>-56,88; 50,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-49,4; 43,0</t>
+          <t>-52,63; 45,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-56,74; 7,51</t>
+          <t>-58,01; 7,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>644,54; 1343,93</t>
+          <t>-34,75; 61,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-61,53; -28,79</t>
+          <t>-35,39; 35,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,9; 4,64</t>
+          <t>-13,01; 83,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-40,08; 0,53</t>
+          <t>-62,04; -29,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>369,03; 548,31</t>
+          <t>-34,4; 8,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-56,91; -20,23</t>
+          <t>-37,98; 3,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-34,3; 6,39</t>
+          <t>-24,67; 26,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-40,6; -5,77</t>
+          <t>-32,83; 12,35</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>496,87; 736,92</t>
+          <t>-26,0; 18,11</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-53,8; -13,35</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-34,51; 10,85</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-40,32; -4,22</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-17,99; 29,77</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-28,42; 10,72</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-16,82; 25,33</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,83</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>85,85</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,86</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>69,82</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-6,0</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>78,02</t>
+          <t>-1,76</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-3,17</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-1,83</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>2,98</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>-3,46</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 0,26</t>
+          <t>-6,53; 0,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 0,89</t>
+          <t>-6,01; 0,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 5,13</t>
+          <t>-3,44; 5,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>80,57; 89,55</t>
+          <t>-2,78; 4,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 0,54</t>
+          <t>-4,74; 3,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 2,58</t>
+          <t>-3,32; 5,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 3,74</t>
+          <t>-7,54; 0,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>62,75; 74,96</t>
+          <t>-5,63; 2,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,28; -0,82</t>
+          <t>-4,21; 4,24</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 0,62</t>
+          <t>0,41; 10,37</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 2,98</t>
+          <t>-11,72; 0,17</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>74,27; 81,08</t>
+          <t>-8,52; 4,58</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-6,04; -0,41</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-4,44; 0,52</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-2,59; 3,46</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-0,26; 6,1</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-6,73; 0,14</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-4,04; 3,95</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-37,27%</t>
+          <t>-35,12%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-29,1%</t>
+          <t>-29,01%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1130,09%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-26,16%</t>
+          <t>-8,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-8,99%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-3,11%</t>
+          <t>-24,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>473,71%</t>
+          <t>-9,48%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-29,9%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-16,09%</t>
+          <t>33,46%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-0,89%</t>
+          <t>-30,49%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>697,13%</t>
+          <t>-11,43%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-28,34%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-16,39%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>1,14%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>26,59%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>-24,4%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>-0,68%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-67,55; 8,79</t>
+          <t>-65,33; 11,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-58,36; 18,61</t>
+          <t>-60,69; 17,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-40,88; 84,46</t>
+          <t>-36,79; 88,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>696,25; 1571,87</t>
+          <t>-32,55; 77,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,57; 5,82</t>
+          <t>-47,49; 47,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,03; 20,32</t>
+          <t>-37,48; 131,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,24; 29,42</t>
+          <t>-45,69; 6,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>370,64; 613,18</t>
+          <t>-32,72; 19,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-48,24; -7,98</t>
+          <t>-25,03; 32,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-35,29; 6,59</t>
+          <t>1,88; 79,68</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-23,85; 30,88</t>
+          <t>-53,04; 3,42</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>549,43; 839,98</t>
+          <t>-45,42; 43,1</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-46,42; -4,19</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-35,42; 5,17</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-20,65; 34,85</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-2,37; 60,71</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-43,52; 1,45</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-33,06; 47,15</t>
         </is>
       </c>
     </row>
@@ -1208,60 +1496,90 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>3,1</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-7,12</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-3,15</t>
+          <t>-6,79</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>-2,05</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-3,23</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-2,68</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-3,69</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-0,89</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-1,6</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-4,32</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-0,76</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-1,61</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1276,60 +1594,90 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 10,96</t>
+          <t>-6,98; 4,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 5,94</t>
+          <t>-4,8; 5,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 5,2</t>
+          <t>-5,6; 5,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-2,94; 11,03</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-13,51; -1,29</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 4,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 3,15</t>
+          <t>-13,62; -0,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>-8,53; 4,87</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-10,12; 3,3</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-10,18; 4,86</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-7,9; 2,36</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-5,41; 3,28</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-6,51; 2,24</t>
-        </is>
-      </c>
       <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-8,61; 0,26</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-5,22; 3,76</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-6,07; 2,78</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-4,45; 5,51</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1344,60 +1692,90 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-6,03%</t>
+          <t>-32,39%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,69%</t>
+          <t>-0,77%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>52,63%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-53,54%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-18,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-23,67%</t>
+          <t>-51,06%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>-15,39%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-24,3%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-20,15%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>-38,68%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-9,37%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-16,75%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-45,33%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-7,95%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-16,9%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>2,63%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1412,60 +1790,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-83,05; 423,91</t>
+          <t>-85,42; 186,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-58,11; 200,83</t>
+          <t>-59,09; 211,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-65,15; 199,02</t>
+          <t>-63,52; 170,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-38,77; 417,38</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-77,93; -4,61</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-58,35; 47,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-58,58; 32,04</t>
+          <t>-79,49; 1,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
+          <t>-51,33; 54,19</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-57,64; 37,31</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-60,56; 49,07</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-68,75; 36,52</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-45,73; 43,46</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-50,82; 32,48</t>
-        </is>
-      </c>
       <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-73,97; 3,58</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-44,02; 53,97</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-52,23; 36,17</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-40,32; 77,62</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>84,69</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-5,98</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>-5,81</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>70,45</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-4,29</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-1,75</t>
+          <t>-3,09</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>77,48</t>
+          <t>-1,16</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-4,14</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-1,8</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-1,58</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>1,32</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>-1,81</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0,12</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,09; -0,0</t>
+          <t>-4,65; 0,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 0,86</t>
+          <t>-4,0; 1,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 1,05</t>
+          <t>-3,86; 1,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>81,79; 87,11</t>
+          <t>-1,58; 3,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,35; -3,6</t>
+          <t>-3,0; 2,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 0,36</t>
+          <t>-0,86; 3,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,7; -0,09</t>
+          <t>-8,39; -3,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>67,51; 73,06</t>
+          <t>-4,37; 0,44</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,07; -2,58</t>
+          <t>-4,31; 0,62</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-3,73; -0,21</t>
+          <t>-1,35; 4,35</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 0,0</t>
+          <t>-6,51; -0,17</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>75,63; 79,22</t>
+          <t>-4,3; 1,71</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-5,87; -2,32</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-3,56; -0,02</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-3,44; 0,26</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-0,55; 3,24</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-3,76; 0,15</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-2,09; 1,83</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-31,34%</t>
+          <t>-29,69%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-20,36%</t>
+          <t>-19,57%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-15,41%</t>
+          <t>-15,02%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1062,15%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-39,89%</t>
+          <t>-4,22%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-13,72%</t>
+          <t>19,28%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-15,0%</t>
+          <t>-38,78%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>469,84%</t>
+          <t>-13,5%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-37,05%</t>
+          <t>-13,07%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-15,99%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-15,12%</t>
+          <t>-18,74%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>669,87%</t>
+          <t>-7,97%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-35,75%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-15,58%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-13,7%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>11,38%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>-14,08%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>1,11%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,112 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-53,38; 3,11</t>
+          <t>-51,16; 13,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-43,7; 14,22</t>
+          <t>-42,44; 20,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-39,17; 17,14</t>
+          <t>-40,4; 20,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>827,85; 1366,14</t>
+          <t>-16,07; 55,2</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-51,87; -25,91</t>
+          <t>-28,81; 25,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,82; 2,84</t>
+          <t>-11,22; 64,97</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-28,86; -0,54</t>
+          <t>-50,92; -25,07</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>405,51; 539,66</t>
+          <t>-26,95; 3,44</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-47,83; -23,11</t>
+          <t>-26,72; 4,02</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-29,38; -1,73</t>
+          <t>-8,6; 31,18</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-28,76; -0,0</t>
+          <t>-35,01; -0,96</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>590,99; 763,9</t>
+          <t>-26,3; 13,34</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-47,31; -21,55</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-28,05; -0,1</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-27,33; 2,57</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-4,56; 29,93</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-27,18; 1,63</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-16,55; 18,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
